--- a/4-MOVBANCARIOS2026.xlsx
+++ b/4-MOVBANCARIOS2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Dropbox\Administracion\2025\FINANZAS 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56AEFB12-0A3D-4BC1-9323-180CD2811A5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED3D259E-BBAB-41A3-8C49-B049E08F8C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{CE3AB319-23DC-49A2-B43D-7578FB3CD1E7}"/>
   </bookViews>
@@ -26,8 +26,8 @@
     <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">ACTIVIDADES!$C$16:$N$16</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">ACTIVIDADES!$C$38:$N$38</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">ACTIVIDADES!$C$38:$N$38</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">ACTIVIDADES!$C$16:$N$16</definedName>
     <definedName name="ACT">#REF!</definedName>
     <definedName name="ACTIVIDAD">#REF!</definedName>
     <definedName name="ADMINISTRACION">#REF!</definedName>
@@ -2474,6 +2474,432 @@
       </font>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5D5D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="0"/>
@@ -2860,432 +3286,6 @@
           <bgColor theme="0"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5D5D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -3889,6 +3889,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -3913,6 +3914,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -7011,7 +7013,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.1</cx:f>
+        <cx:f dir="row">_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -7083,7 +7085,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.0</cx:f>
+        <cx:f dir="row">_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -19666,6 +19668,1285 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5163EFF1-8BB2-4366-8E39-7F25A56B26CA}" name="TablaDinámica4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="B3:H38" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="23">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="14">
+        <item x="0"/>
+        <item x="1"/>
+        <item m="1" x="3"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item m="1" x="6"/>
+        <item m="1" x="2"/>
+        <item m="1" x="7"/>
+        <item m="1" x="8"/>
+        <item m="1" x="9"/>
+        <item m="1" x="10"/>
+        <item m="1" x="11"/>
+        <item m="1" x="12"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="166" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="44" showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="12">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item m="1" x="9"/>
+        <item m="1" x="5"/>
+        <item m="1" x="7"/>
+        <item m="1" x="10"/>
+        <item x="4"/>
+        <item m="1" x="8"/>
+        <item m="1" x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" sortType="ascending">
+      <items count="82">
+        <item m="1" x="26"/>
+        <item x="14"/>
+        <item m="1" x="43"/>
+        <item m="1" x="23"/>
+        <item x="11"/>
+        <item m="1" x="28"/>
+        <item x="15"/>
+        <item m="1" x="27"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item m="1" x="25"/>
+        <item m="1" x="31"/>
+        <item x="16"/>
+        <item m="1" x="29"/>
+        <item x="12"/>
+        <item m="1" x="36"/>
+        <item x="17"/>
+        <item m="1" x="60"/>
+        <item m="1" x="50"/>
+        <item x="13"/>
+        <item m="1" x="44"/>
+        <item x="1"/>
+        <item x="8"/>
+        <item m="1" x="32"/>
+        <item x="9"/>
+        <item m="1" x="45"/>
+        <item x="7"/>
+        <item m="1" x="51"/>
+        <item m="1" x="21"/>
+        <item m="1" x="38"/>
+        <item m="1" x="46"/>
+        <item m="1" x="49"/>
+        <item m="1" x="33"/>
+        <item m="1" x="24"/>
+        <item x="4"/>
+        <item m="1" x="48"/>
+        <item m="1" x="47"/>
+        <item x="3"/>
+        <item m="1" x="19"/>
+        <item x="10"/>
+        <item m="1" x="30"/>
+        <item m="1" x="37"/>
+        <item m="1" x="41"/>
+        <item x="5"/>
+        <item m="1" x="59"/>
+        <item m="1" x="20"/>
+        <item x="6"/>
+        <item m="1" x="39"/>
+        <item m="1" x="34"/>
+        <item m="1" x="35"/>
+        <item m="1" x="40"/>
+        <item m="1" x="42"/>
+        <item m="1" x="55"/>
+        <item m="1" x="54"/>
+        <item m="1" x="53"/>
+        <item m="1" x="52"/>
+        <item m="1" x="56"/>
+        <item m="1" x="58"/>
+        <item m="1" x="57"/>
+        <item m="1" x="70"/>
+        <item m="1" x="61"/>
+        <item m="1" x="74"/>
+        <item m="1" x="63"/>
+        <item m="1" x="80"/>
+        <item m="1" x="71"/>
+        <item m="1" x="66"/>
+        <item m="1" x="77"/>
+        <item m="1" x="76"/>
+        <item m="1" x="62"/>
+        <item m="1" x="78"/>
+        <item m="1" x="73"/>
+        <item m="1" x="79"/>
+        <item m="1" x="75"/>
+        <item m="1" x="69"/>
+        <item m="1" x="67"/>
+        <item m="1" x="64"/>
+        <item m="1" x="22"/>
+        <item m="1" x="68"/>
+        <item m="1" x="72"/>
+        <item m="1" x="65"/>
+        <item m="1" x="18"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="0"/>
+    <field x="20"/>
+  </rowFields>
+  <rowItems count="34">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
+    </i>
+    <i r="1">
+      <x v="14"/>
+    </i>
+    <i r="1">
+      <x v="19"/>
+    </i>
+    <i r="1">
+      <x v="21"/>
+    </i>
+    <i r="1">
+      <x v="22"/>
+    </i>
+    <i r="1">
+      <x v="24"/>
+    </i>
+    <i r="1">
+      <x v="26"/>
+    </i>
+    <i r="1">
+      <x v="34"/>
+    </i>
+    <i r="1">
+      <x v="39"/>
+    </i>
+    <i r="1">
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="14"/>
+    </i>
+    <i r="1">
+      <x v="16"/>
+    </i>
+    <i r="1">
+      <x v="19"/>
+    </i>
+    <i r="1">
+      <x v="21"/>
+    </i>
+    <i r="1">
+      <x v="22"/>
+    </i>
+    <i r="1">
+      <x v="24"/>
+    </i>
+    <i r="1">
+      <x v="26"/>
+    </i>
+    <i r="1">
+      <x v="34"/>
+    </i>
+    <i r="1">
+      <x v="37"/>
+    </i>
+    <i r="1">
+      <x v="39"/>
+    </i>
+    <i r="1">
+      <x v="43"/>
+    </i>
+    <i r="1">
+      <x v="46"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="14"/>
+  </colFields>
+  <colItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Suma de EGRESOS" fld="4" baseField="0" baseItem="0" numFmtId="44"/>
+  </dataFields>
+  <formats count="76">
+    <format dxfId="87">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="86">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="85">
+      <pivotArea grandCol="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="84">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="20" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="83">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="82">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="20" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="81">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="80">
+      <pivotArea field="14" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="79">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="78">
+      <pivotArea field="20" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
+    </format>
+    <format dxfId="77">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="20" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="76">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="75">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="74">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="73">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="72">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="71">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="70">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="69">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="68">
+      <pivotArea field="14" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="67">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="66">
+      <pivotArea field="20" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
+    </format>
+    <format dxfId="65">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="20" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="64">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="14" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="63">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="62">
+      <pivotArea grandRow="1" grandCol="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="61">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="60">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="20" count="11">
+            <x v="0"/>
+            <x v="3"/>
+            <x v="5"/>
+            <x v="7"/>
+            <x v="8"/>
+            <x v="9"/>
+            <x v="11"/>
+            <x v="13"/>
+            <x v="15"/>
+            <x v="19"/>
+            <x v="45"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="59">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="14" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="58">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="57">
+      <pivotArea dataOnly="0" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="56">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="20" count="11">
+            <x v="3"/>
+            <x v="5"/>
+            <x v="7"/>
+            <x v="8"/>
+            <x v="9"/>
+            <x v="15"/>
+            <x v="19"/>
+            <x v="21"/>
+            <x v="23"/>
+            <x v="28"/>
+            <x v="45"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="55">
+      <pivotArea dataOnly="0" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="54">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="20" count="13">
+            <x v="3"/>
+            <x v="5"/>
+            <x v="7"/>
+            <x v="8"/>
+            <x v="9"/>
+            <x v="13"/>
+            <x v="15"/>
+            <x v="19"/>
+            <x v="21"/>
+            <x v="32"/>
+            <x v="33"/>
+            <x v="38"/>
+            <x v="45"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="53">
+      <pivotArea dataOnly="0" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="52">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="20" count="14">
+            <x v="3"/>
+            <x v="5"/>
+            <x v="7"/>
+            <x v="8"/>
+            <x v="9"/>
+            <x v="13"/>
+            <x v="19"/>
+            <x v="21"/>
+            <x v="33"/>
+            <x v="38"/>
+            <x v="39"/>
+            <x v="40"/>
+            <x v="41"/>
+            <x v="45"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="51">
+      <pivotArea dataOnly="0" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="50">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+          <reference field="20" count="13">
+            <x v="3"/>
+            <x v="7"/>
+            <x v="8"/>
+            <x v="9"/>
+            <x v="15"/>
+            <x v="19"/>
+            <x v="21"/>
+            <x v="28"/>
+            <x v="29"/>
+            <x v="33"/>
+            <x v="38"/>
+            <x v="40"/>
+            <x v="45"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="49">
+      <pivotArea dataOnly="0" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="48">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+          <reference field="20" count="15">
+            <x v="3"/>
+            <x v="7"/>
+            <x v="8"/>
+            <x v="9"/>
+            <x v="13"/>
+            <x v="15"/>
+            <x v="19"/>
+            <x v="21"/>
+            <x v="23"/>
+            <x v="28"/>
+            <x v="29"/>
+            <x v="33"/>
+            <x v="38"/>
+            <x v="45"/>
+            <x v="47"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="47">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+          <reference field="20" count="4">
+            <x v="40"/>
+            <x v="45"/>
+            <x v="47"/>
+            <x v="49"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="46">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+          <reference field="20" count="15">
+            <x v="3"/>
+            <x v="7"/>
+            <x v="8"/>
+            <x v="9"/>
+            <x v="19"/>
+            <x v="21"/>
+            <x v="23"/>
+            <x v="28"/>
+            <x v="29"/>
+            <x v="38"/>
+            <x v="42"/>
+            <x v="45"/>
+            <x v="47"/>
+            <x v="49"/>
+            <x v="80"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="45">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1">
+            <x v="0"/>
+          </reference>
+          <reference field="14" count="0" selected="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="44">
+      <pivotArea dataOnly="0" fieldPosition="0">
+        <references count="1">
+          <reference field="20" count="9">
+            <x v="3"/>
+            <x v="7"/>
+            <x v="8"/>
+            <x v="9"/>
+            <x v="13"/>
+            <x v="28"/>
+            <x v="29"/>
+            <x v="45"/>
+            <x v="49"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="43">
+      <pivotArea dataOnly="0" fieldPosition="0">
+        <references count="1">
+          <reference field="20" count="1">
+            <x v="40"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="42">
+      <pivotArea dataOnly="0" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="41">
+      <pivotArea dataOnly="0" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="40">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="0" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+          <reference field="14" count="4" selected="0">
+            <x v="2"/>
+            <x v="3"/>
+            <x v="6"/>
+            <x v="8"/>
+          </reference>
+          <reference field="20" count="15">
+            <x v="3"/>
+            <x v="7"/>
+            <x v="8"/>
+            <x v="9"/>
+            <x v="19"/>
+            <x v="21"/>
+            <x v="23"/>
+            <x v="28"/>
+            <x v="29"/>
+            <x v="38"/>
+            <x v="40"/>
+            <x v="42"/>
+            <x v="45"/>
+            <x v="47"/>
+            <x v="49"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="39">
+      <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="1">
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+          <reference field="20" count="15">
+            <x v="3"/>
+            <x v="7"/>
+            <x v="8"/>
+            <x v="9"/>
+            <x v="19"/>
+            <x v="21"/>
+            <x v="23"/>
+            <x v="28"/>
+            <x v="29"/>
+            <x v="38"/>
+            <x v="40"/>
+            <x v="42"/>
+            <x v="45"/>
+            <x v="47"/>
+            <x v="49"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="38">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+          <reference field="20" count="12">
+            <x v="3"/>
+            <x v="7"/>
+            <x v="8"/>
+            <x v="9"/>
+            <x v="13"/>
+            <x v="19"/>
+            <x v="21"/>
+            <x v="28"/>
+            <x v="29"/>
+            <x v="38"/>
+            <x v="45"/>
+            <x v="49"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="37">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+          <reference field="20" count="12">
+            <x v="3"/>
+            <x v="7"/>
+            <x v="8"/>
+            <x v="9"/>
+            <x v="13"/>
+            <x v="19"/>
+            <x v="21"/>
+            <x v="28"/>
+            <x v="29"/>
+            <x v="38"/>
+            <x v="45"/>
+            <x v="49"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="36">
+      <pivotArea dataOnly="0" fieldPosition="0">
+        <references count="1">
+          <reference field="20" count="14">
+            <x v="0"/>
+            <x v="3"/>
+            <x v="7"/>
+            <x v="8"/>
+            <x v="9"/>
+            <x v="13"/>
+            <x v="19"/>
+            <x v="21"/>
+            <x v="28"/>
+            <x v="29"/>
+            <x v="38"/>
+            <x v="42"/>
+            <x v="45"/>
+            <x v="47"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="35">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="10"/>
+          </reference>
+          <reference field="20" count="10">
+            <x v="9"/>
+            <x v="13"/>
+            <x v="19"/>
+            <x v="21"/>
+            <x v="28"/>
+            <x v="33"/>
+            <x v="38"/>
+            <x v="39"/>
+            <x v="45"/>
+            <x v="48"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="34">
+      <pivotArea dataOnly="0" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1">
+            <x v="11"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="33">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="11"/>
+          </reference>
+          <reference field="20" count="5">
+            <x v="19"/>
+            <x v="21"/>
+            <x v="23"/>
+            <x v="33"/>
+            <x v="45"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="32">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="10"/>
+          </reference>
+          <reference field="20" count="1">
+            <x v="80"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="31">
+      <pivotArea dataOnly="0" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1">
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="30">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+          <reference field="20" count="6">
+            <x v="28"/>
+            <x v="33"/>
+            <x v="38"/>
+            <x v="40"/>
+            <x v="45"/>
+            <x v="48"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="29">
+      <pivotArea dataOnly="0" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="28">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+          <reference field="20" count="3">
+            <x v="47"/>
+            <x v="49"/>
+            <x v="51"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="27">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="0" selected="0"/>
+          <reference field="20" count="13">
+            <x v="1"/>
+            <x v="4"/>
+            <x v="8"/>
+            <x v="9"/>
+            <x v="12"/>
+            <x v="19"/>
+            <x v="21"/>
+            <x v="22"/>
+            <x v="24"/>
+            <x v="26"/>
+            <x v="34"/>
+            <x v="38"/>
+            <x v="39"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="26">
+      <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="1">
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="20" count="14">
+            <x v="1"/>
+            <x v="4"/>
+            <x v="8"/>
+            <x v="9"/>
+            <x v="12"/>
+            <x v="19"/>
+            <x v="21"/>
+            <x v="22"/>
+            <x v="24"/>
+            <x v="26"/>
+            <x v="34"/>
+            <x v="38"/>
+            <x v="39"/>
+            <x v="80"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="25">
+      <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="1">
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="20" count="10">
+            <x v="1"/>
+            <x v="4"/>
+            <x v="8"/>
+            <x v="9"/>
+            <x v="26"/>
+            <x v="34"/>
+            <x v="37"/>
+            <x v="38"/>
+            <x v="39"/>
+            <x v="80"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="24">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="14" count="0" selected="0"/>
+          <reference field="20" count="1">
+            <x v="80"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="23">
+      <pivotArea field="14" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisCol" fieldPosition="0">
+        <references count="1">
+          <reference field="14" count="0" selected="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="22">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="21">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="20" count="1">
+            <x v="80"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="20">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="20" count="9">
+            <x v="1"/>
+            <x v="4"/>
+            <x v="8"/>
+            <x v="9"/>
+            <x v="14"/>
+            <x v="16"/>
+            <x v="19"/>
+            <x v="26"/>
+            <x v="34"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="19">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="20" count="9">
+            <x v="1"/>
+            <x v="4"/>
+            <x v="8"/>
+            <x v="9"/>
+            <x v="14"/>
+            <x v="16"/>
+            <x v="19"/>
+            <x v="26"/>
+            <x v="34"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="18">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="20" count="8">
+            <x v="8"/>
+            <x v="9"/>
+            <x v="12"/>
+            <x v="14"/>
+            <x v="19"/>
+            <x v="21"/>
+            <x v="22"/>
+            <x v="24"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="17">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="20" count="8">
+            <x v="8"/>
+            <x v="9"/>
+            <x v="12"/>
+            <x v="14"/>
+            <x v="19"/>
+            <x v="21"/>
+            <x v="22"/>
+            <x v="24"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="16">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="20" count="6">
+            <x v="26"/>
+            <x v="34"/>
+            <x v="37"/>
+            <x v="39"/>
+            <x v="43"/>
+            <x v="46"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="15">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="20" count="6">
+            <x v="4"/>
+            <x v="6"/>
+            <x v="8"/>
+            <x v="9"/>
+            <x v="14"/>
+            <x v="16"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="14">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="20" count="1">
+            <x v="46"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="13">
+      <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="1">
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="20" count="17">
+            <x v="1"/>
+            <x v="4"/>
+            <x v="6"/>
+            <x v="8"/>
+            <x v="9"/>
+            <x v="14"/>
+            <x v="16"/>
+            <x v="19"/>
+            <x v="21"/>
+            <x v="22"/>
+            <x v="24"/>
+            <x v="26"/>
+            <x v="34"/>
+            <x v="37"/>
+            <x v="39"/>
+            <x v="43"/>
+            <x v="46"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="12">
+      <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="1">
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="20" count="1">
+            <x v="46"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <chartFormats count="7">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="14" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="14" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="14" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="14" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="14" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="14" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="14" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{159C3347-C6B7-43D6-ADF0-4CA96FF46852}" name="TablaDinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="L3:R38" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="23">
@@ -19945,63 +21226,63 @@
     <dataField name="Suma de INGRESOS" fld="5" baseField="0" baseItem="0" numFmtId="44"/>
   </dataFields>
   <formats count="70">
-    <format dxfId="81">
+    <format dxfId="157">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="20" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="80">
+    <format dxfId="156">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="14" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="79">
+    <format dxfId="155">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="78">
+    <format dxfId="154">
       <pivotArea grandCol="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="77">
+    <format dxfId="153">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="20" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="76">
+    <format dxfId="152">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="75">
+    <format dxfId="151">
       <pivotArea field="14" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="74">
+    <format dxfId="150">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="73">
+    <format dxfId="149">
       <pivotArea field="20" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="72">
+    <format dxfId="148">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="20" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="71">
+    <format dxfId="147">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="14" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="70">
+    <format dxfId="146">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="69">
+    <format dxfId="145">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="20" count="6">
@@ -20015,57 +21296,57 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="68">
+    <format dxfId="144">
       <pivotArea dataOnly="0" grandRow="1" fieldPosition="0"/>
     </format>
-    <format dxfId="67">
+    <format dxfId="143">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="66">
+    <format dxfId="142">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="65">
+    <format dxfId="141">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="64">
+    <format dxfId="140">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="63">
+    <format dxfId="139">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="62">
+    <format dxfId="138">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="61">
+    <format dxfId="137">
       <pivotArea field="14" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="60">
+    <format dxfId="136">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="59">
+    <format dxfId="135">
       <pivotArea field="20" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="58">
+    <format dxfId="134">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="20" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="57">
+    <format dxfId="133">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="14" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="56">
+    <format dxfId="132">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="55">
+    <format dxfId="131">
       <pivotArea grandRow="1" grandCol="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="54">
+    <format dxfId="130">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -20087,7 +21368,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="53">
+    <format dxfId="129">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -20109,7 +21390,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="52">
+    <format dxfId="128">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -20133,7 +21414,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="51">
+    <format dxfId="127">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -20158,7 +21439,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="50">
+    <format dxfId="126">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -20182,7 +21463,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="49">
+    <format dxfId="125">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -20210,7 +21491,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="48">
+    <format dxfId="124">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -20236,14 +21517,14 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="47">
+    <format dxfId="123">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="46">
+    <format dxfId="122">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -20266,7 +21547,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="45">
+    <format dxfId="121">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -20290,7 +21571,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="44">
+    <format dxfId="120">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -20308,7 +21589,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="43">
+    <format dxfId="119">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -20329,7 +21610,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="42">
+    <format dxfId="118">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -20350,7 +21631,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="41">
+    <format dxfId="117">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -20371,7 +21652,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="40">
+    <format dxfId="116">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -20393,20 +21674,20 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="39">
+    <format dxfId="115">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="38">
+    <format dxfId="114">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="37">
+    <format dxfId="113">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="36">
+    <format dxfId="112">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -20428,7 +21709,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="35">
+    <format dxfId="111">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -20450,7 +21731,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="34">
+    <format dxfId="110">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -20474,7 +21755,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="33">
+    <format dxfId="109">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -20499,7 +21780,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="32">
+    <format dxfId="108">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -20523,7 +21804,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="31">
+    <format dxfId="107">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -20552,7 +21833,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="30">
+    <format dxfId="106">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -20579,7 +21860,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="29">
+    <format dxfId="105">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -20607,7 +21888,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="28">
+    <format dxfId="104">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -20633,7 +21914,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="27">
+    <format dxfId="103">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -20658,7 +21939,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="26">
+    <format dxfId="102">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -20681,7 +21962,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="25">
+    <format dxfId="101">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -20693,7 +21974,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="24">
+    <format dxfId="100">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -20713,7 +21994,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="23">
+    <format dxfId="99">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -20738,7 +22019,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="22">
+    <format dxfId="98">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -20750,7 +22031,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="21">
+    <format dxfId="97">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="1">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -20767,1103 +22048,6 @@
             <x v="38"/>
             <x v="39"/>
             <x v="80"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="20">
-      <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="1">
-        <references count="2">
-          <reference field="0" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="20" count="14">
-            <x v="1"/>
-            <x v="4"/>
-            <x v="8"/>
-            <x v="9"/>
-            <x v="12"/>
-            <x v="19"/>
-            <x v="21"/>
-            <x v="22"/>
-            <x v="24"/>
-            <x v="26"/>
-            <x v="34"/>
-            <x v="38"/>
-            <x v="39"/>
-            <x v="80"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="19">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="3">
-          <reference field="0" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="14" count="0" selected="0"/>
-          <reference field="20" count="3">
-            <x v="38"/>
-            <x v="39"/>
-            <x v="80"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="18">
-      <pivotArea field="14" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisCol" fieldPosition="0">
-        <references count="1">
-          <reference field="14" count="0" selected="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="17">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="16">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="2">
-          <reference field="0" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="20" count="3">
-            <x v="38"/>
-            <x v="39"/>
-            <x v="80"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="15">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="2">
-          <reference field="0" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="20" count="15">
-            <x v="6"/>
-            <x v="8"/>
-            <x v="9"/>
-            <x v="14"/>
-            <x v="16"/>
-            <x v="19"/>
-            <x v="21"/>
-            <x v="22"/>
-            <x v="24"/>
-            <x v="26"/>
-            <x v="34"/>
-            <x v="37"/>
-            <x v="39"/>
-            <x v="43"/>
-            <x v="46"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="14">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="2">
-          <reference field="0" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="20" count="9">
-            <x v="14"/>
-            <x v="19"/>
-            <x v="21"/>
-            <x v="22"/>
-            <x v="24"/>
-            <x v="26"/>
-            <x v="34"/>
-            <x v="39"/>
-            <x v="46"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="13">
-      <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="1">
-        <references count="2">
-          <reference field="0" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="20" count="1">
-            <x v="46"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="12">
-      <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="1">
-        <references count="2">
-          <reference field="0" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="20" count="16">
-            <x v="4"/>
-            <x v="6"/>
-            <x v="8"/>
-            <x v="9"/>
-            <x v="14"/>
-            <x v="16"/>
-            <x v="19"/>
-            <x v="21"/>
-            <x v="22"/>
-            <x v="24"/>
-            <x v="26"/>
-            <x v="34"/>
-            <x v="37"/>
-            <x v="39"/>
-            <x v="43"/>
-            <x v="46"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5163EFF1-8BB2-4366-8E39-7F25A56B26CA}" name="TablaDinámica4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="B3:H38" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="23">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="14">
-        <item x="0"/>
-        <item x="1"/>
-        <item m="1" x="3"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item m="1" x="6"/>
-        <item m="1" x="2"/>
-        <item m="1" x="7"/>
-        <item m="1" x="8"/>
-        <item m="1" x="9"/>
-        <item m="1" x="10"/>
-        <item m="1" x="11"/>
-        <item m="1" x="12"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="166" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="44" showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="12">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item m="1" x="9"/>
-        <item m="1" x="5"/>
-        <item m="1" x="7"/>
-        <item m="1" x="10"/>
-        <item x="4"/>
-        <item m="1" x="8"/>
-        <item m="1" x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="82">
-        <item m="1" x="26"/>
-        <item x="14"/>
-        <item m="1" x="43"/>
-        <item m="1" x="23"/>
-        <item x="11"/>
-        <item m="1" x="28"/>
-        <item x="15"/>
-        <item m="1" x="27"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item m="1" x="25"/>
-        <item m="1" x="31"/>
-        <item x="16"/>
-        <item m="1" x="29"/>
-        <item x="12"/>
-        <item m="1" x="36"/>
-        <item x="17"/>
-        <item m="1" x="60"/>
-        <item m="1" x="50"/>
-        <item x="13"/>
-        <item m="1" x="44"/>
-        <item x="1"/>
-        <item x="8"/>
-        <item m="1" x="32"/>
-        <item x="9"/>
-        <item m="1" x="45"/>
-        <item x="7"/>
-        <item m="1" x="51"/>
-        <item m="1" x="21"/>
-        <item m="1" x="38"/>
-        <item m="1" x="46"/>
-        <item m="1" x="49"/>
-        <item m="1" x="33"/>
-        <item m="1" x="24"/>
-        <item x="4"/>
-        <item m="1" x="48"/>
-        <item m="1" x="47"/>
-        <item x="3"/>
-        <item m="1" x="19"/>
-        <item x="10"/>
-        <item m="1" x="30"/>
-        <item m="1" x="37"/>
-        <item m="1" x="41"/>
-        <item x="5"/>
-        <item m="1" x="59"/>
-        <item m="1" x="20"/>
-        <item x="6"/>
-        <item m="1" x="39"/>
-        <item m="1" x="34"/>
-        <item m="1" x="35"/>
-        <item m="1" x="40"/>
-        <item m="1" x="42"/>
-        <item m="1" x="55"/>
-        <item m="1" x="54"/>
-        <item m="1" x="53"/>
-        <item m="1" x="52"/>
-        <item m="1" x="56"/>
-        <item m="1" x="58"/>
-        <item m="1" x="57"/>
-        <item m="1" x="70"/>
-        <item m="1" x="61"/>
-        <item m="1" x="74"/>
-        <item m="1" x="63"/>
-        <item m="1" x="80"/>
-        <item m="1" x="71"/>
-        <item m="1" x="66"/>
-        <item m="1" x="77"/>
-        <item m="1" x="76"/>
-        <item m="1" x="62"/>
-        <item m="1" x="78"/>
-        <item m="1" x="73"/>
-        <item m="1" x="79"/>
-        <item m="1" x="75"/>
-        <item m="1" x="69"/>
-        <item m="1" x="67"/>
-        <item m="1" x="64"/>
-        <item m="1" x="22"/>
-        <item m="1" x="68"/>
-        <item m="1" x="72"/>
-        <item m="1" x="65"/>
-        <item m="1" x="18"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="0"/>
-    <field x="20"/>
-  </rowFields>
-  <rowItems count="34">
-    <i>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="8"/>
-    </i>
-    <i r="1">
-      <x v="9"/>
-    </i>
-    <i r="1">
-      <x v="12"/>
-    </i>
-    <i r="1">
-      <x v="14"/>
-    </i>
-    <i r="1">
-      <x v="19"/>
-    </i>
-    <i r="1">
-      <x v="21"/>
-    </i>
-    <i r="1">
-      <x v="22"/>
-    </i>
-    <i r="1">
-      <x v="24"/>
-    </i>
-    <i r="1">
-      <x v="26"/>
-    </i>
-    <i r="1">
-      <x v="34"/>
-    </i>
-    <i r="1">
-      <x v="39"/>
-    </i>
-    <i r="1">
-      <x v="46"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="8"/>
-    </i>
-    <i r="1">
-      <x v="9"/>
-    </i>
-    <i r="1">
-      <x v="14"/>
-    </i>
-    <i r="1">
-      <x v="16"/>
-    </i>
-    <i r="1">
-      <x v="19"/>
-    </i>
-    <i r="1">
-      <x v="21"/>
-    </i>
-    <i r="1">
-      <x v="22"/>
-    </i>
-    <i r="1">
-      <x v="24"/>
-    </i>
-    <i r="1">
-      <x v="26"/>
-    </i>
-    <i r="1">
-      <x v="34"/>
-    </i>
-    <i r="1">
-      <x v="37"/>
-    </i>
-    <i r="1">
-      <x v="39"/>
-    </i>
-    <i r="1">
-      <x v="43"/>
-    </i>
-    <i r="1">
-      <x v="46"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="14"/>
-  </colFields>
-  <colItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Suma de EGRESOS" fld="4" baseField="0" baseItem="0" numFmtId="44"/>
-  </dataFields>
-  <formats count="76">
-    <format dxfId="157">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="156">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="155">
-      <pivotArea grandCol="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="154">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="20" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="153">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="152">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="20" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="151">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="150">
-      <pivotArea field="14" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="149">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="148">
-      <pivotArea field="20" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
-    </format>
-    <format dxfId="147">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="20" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="146">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="145">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="144">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="143">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="142">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="141">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="140">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="139">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="138">
-      <pivotArea field="14" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="137">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="136">
-      <pivotArea field="20" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
-    </format>
-    <format dxfId="135">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="20" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="134">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="14" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="133">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="132">
-      <pivotArea grandRow="1" grandCol="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="131">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="130">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="2">
-          <reference field="0" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="20" count="11">
-            <x v="0"/>
-            <x v="3"/>
-            <x v="5"/>
-            <x v="7"/>
-            <x v="8"/>
-            <x v="9"/>
-            <x v="11"/>
-            <x v="13"/>
-            <x v="15"/>
-            <x v="19"/>
-            <x v="45"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="129">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="14" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="128">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="127">
-      <pivotArea dataOnly="0" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="1">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="126">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="2">
-          <reference field="0" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="20" count="11">
-            <x v="3"/>
-            <x v="5"/>
-            <x v="7"/>
-            <x v="8"/>
-            <x v="9"/>
-            <x v="15"/>
-            <x v="19"/>
-            <x v="21"/>
-            <x v="23"/>
-            <x v="28"/>
-            <x v="45"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="125">
-      <pivotArea dataOnly="0" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="1">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="124">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="2">
-          <reference field="0" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="20" count="13">
-            <x v="3"/>
-            <x v="5"/>
-            <x v="7"/>
-            <x v="8"/>
-            <x v="9"/>
-            <x v="13"/>
-            <x v="15"/>
-            <x v="19"/>
-            <x v="21"/>
-            <x v="32"/>
-            <x v="33"/>
-            <x v="38"/>
-            <x v="45"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="123">
-      <pivotArea dataOnly="0" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="1">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="122">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="2">
-          <reference field="0" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-          <reference field="20" count="14">
-            <x v="3"/>
-            <x v="5"/>
-            <x v="7"/>
-            <x v="8"/>
-            <x v="9"/>
-            <x v="13"/>
-            <x v="19"/>
-            <x v="21"/>
-            <x v="33"/>
-            <x v="38"/>
-            <x v="39"/>
-            <x v="40"/>
-            <x v="41"/>
-            <x v="45"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="121">
-      <pivotArea dataOnly="0" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="1">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="120">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="2">
-          <reference field="0" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-          <reference field="20" count="13">
-            <x v="3"/>
-            <x v="7"/>
-            <x v="8"/>
-            <x v="9"/>
-            <x v="15"/>
-            <x v="19"/>
-            <x v="21"/>
-            <x v="28"/>
-            <x v="29"/>
-            <x v="33"/>
-            <x v="38"/>
-            <x v="40"/>
-            <x v="45"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="119">
-      <pivotArea dataOnly="0" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="1">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="118">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="2">
-          <reference field="0" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-          <reference field="20" count="15">
-            <x v="3"/>
-            <x v="7"/>
-            <x v="8"/>
-            <x v="9"/>
-            <x v="13"/>
-            <x v="15"/>
-            <x v="19"/>
-            <x v="21"/>
-            <x v="23"/>
-            <x v="28"/>
-            <x v="29"/>
-            <x v="33"/>
-            <x v="38"/>
-            <x v="45"/>
-            <x v="47"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="117">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="2">
-          <reference field="0" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-          <reference field="20" count="4">
-            <x v="40"/>
-            <x v="45"/>
-            <x v="47"/>
-            <x v="49"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="116">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="2">
-          <reference field="0" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-          <reference field="20" count="15">
-            <x v="3"/>
-            <x v="7"/>
-            <x v="8"/>
-            <x v="9"/>
-            <x v="19"/>
-            <x v="21"/>
-            <x v="23"/>
-            <x v="28"/>
-            <x v="29"/>
-            <x v="38"/>
-            <x v="42"/>
-            <x v="45"/>
-            <x v="47"/>
-            <x v="49"/>
-            <x v="80"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="115">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="2">
-          <reference field="0" count="1">
-            <x v="0"/>
-          </reference>
-          <reference field="14" count="0" selected="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="114">
-      <pivotArea dataOnly="0" fieldPosition="0">
-        <references count="1">
-          <reference field="20" count="9">
-            <x v="3"/>
-            <x v="7"/>
-            <x v="8"/>
-            <x v="9"/>
-            <x v="13"/>
-            <x v="28"/>
-            <x v="29"/>
-            <x v="45"/>
-            <x v="49"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="113">
-      <pivotArea dataOnly="0" fieldPosition="0">
-        <references count="1">
-          <reference field="20" count="1">
-            <x v="40"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="112">
-      <pivotArea dataOnly="0" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="1">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="111">
-      <pivotArea dataOnly="0" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="1">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="110">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="3">
-          <reference field="0" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-          <reference field="14" count="4" selected="0">
-            <x v="2"/>
-            <x v="3"/>
-            <x v="6"/>
-            <x v="8"/>
-          </reference>
-          <reference field="20" count="15">
-            <x v="3"/>
-            <x v="7"/>
-            <x v="8"/>
-            <x v="9"/>
-            <x v="19"/>
-            <x v="21"/>
-            <x v="23"/>
-            <x v="28"/>
-            <x v="29"/>
-            <x v="38"/>
-            <x v="40"/>
-            <x v="42"/>
-            <x v="45"/>
-            <x v="47"/>
-            <x v="49"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="109">
-      <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="1">
-        <references count="2">
-          <reference field="0" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-          <reference field="20" count="15">
-            <x v="3"/>
-            <x v="7"/>
-            <x v="8"/>
-            <x v="9"/>
-            <x v="19"/>
-            <x v="21"/>
-            <x v="23"/>
-            <x v="28"/>
-            <x v="29"/>
-            <x v="38"/>
-            <x v="40"/>
-            <x v="42"/>
-            <x v="45"/>
-            <x v="47"/>
-            <x v="49"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="108">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="2">
-          <reference field="0" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-          <reference field="20" count="12">
-            <x v="3"/>
-            <x v="7"/>
-            <x v="8"/>
-            <x v="9"/>
-            <x v="13"/>
-            <x v="19"/>
-            <x v="21"/>
-            <x v="28"/>
-            <x v="29"/>
-            <x v="38"/>
-            <x v="45"/>
-            <x v="49"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="107">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="2">
-          <reference field="0" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-          <reference field="20" count="12">
-            <x v="3"/>
-            <x v="7"/>
-            <x v="8"/>
-            <x v="9"/>
-            <x v="13"/>
-            <x v="19"/>
-            <x v="21"/>
-            <x v="28"/>
-            <x v="29"/>
-            <x v="38"/>
-            <x v="45"/>
-            <x v="49"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="106">
-      <pivotArea dataOnly="0" fieldPosition="0">
-        <references count="1">
-          <reference field="20" count="14">
-            <x v="0"/>
-            <x v="3"/>
-            <x v="7"/>
-            <x v="8"/>
-            <x v="9"/>
-            <x v="13"/>
-            <x v="19"/>
-            <x v="21"/>
-            <x v="28"/>
-            <x v="29"/>
-            <x v="38"/>
-            <x v="42"/>
-            <x v="45"/>
-            <x v="47"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="105">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="2">
-          <reference field="0" count="1" selected="0">
-            <x v="10"/>
-          </reference>
-          <reference field="20" count="10">
-            <x v="9"/>
-            <x v="13"/>
-            <x v="19"/>
-            <x v="21"/>
-            <x v="28"/>
-            <x v="33"/>
-            <x v="38"/>
-            <x v="39"/>
-            <x v="45"/>
-            <x v="48"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="104">
-      <pivotArea dataOnly="0" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="1">
-            <x v="11"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="103">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="2">
-          <reference field="0" count="1" selected="0">
-            <x v="11"/>
-          </reference>
-          <reference field="20" count="5">
-            <x v="19"/>
-            <x v="21"/>
-            <x v="23"/>
-            <x v="33"/>
-            <x v="45"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="102">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="2">
-          <reference field="0" count="1" selected="0">
-            <x v="10"/>
-          </reference>
-          <reference field="20" count="1">
-            <x v="80"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="101">
-      <pivotArea dataOnly="0" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="1">
-            <x v="10"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="100">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="2">
-          <reference field="0" count="1" selected="0">
-            <x v="9"/>
-          </reference>
-          <reference field="20" count="6">
-            <x v="28"/>
-            <x v="33"/>
-            <x v="38"/>
-            <x v="40"/>
-            <x v="45"/>
-            <x v="48"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="99">
-      <pivotArea dataOnly="0" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="1">
-            <x v="9"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="98">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="2">
-          <reference field="0" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-          <reference field="20" count="3">
-            <x v="47"/>
-            <x v="49"/>
-            <x v="51"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="97">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="2">
-          <reference field="0" count="0" selected="0"/>
-          <reference field="20" count="13">
-            <x v="1"/>
-            <x v="4"/>
-            <x v="8"/>
-            <x v="9"/>
-            <x v="12"/>
-            <x v="19"/>
-            <x v="21"/>
-            <x v="22"/>
-            <x v="24"/>
-            <x v="26"/>
-            <x v="34"/>
-            <x v="38"/>
-            <x v="39"/>
           </reference>
         </references>
       </pivotArea>
@@ -21894,19 +22078,13 @@
       </pivotArea>
     </format>
     <format dxfId="95">
-      <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="1">
-        <references count="2">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
           <reference field="0" count="1" selected="0">
             <x v="1"/>
           </reference>
-          <reference field="20" count="10">
-            <x v="1"/>
-            <x v="4"/>
-            <x v="8"/>
-            <x v="9"/>
-            <x v="26"/>
-            <x v="34"/>
-            <x v="37"/>
+          <reference field="14" count="0" selected="0"/>
+          <reference field="20" count="3">
             <x v="38"/>
             <x v="39"/>
             <x v="80"/>
@@ -21915,27 +22093,28 @@
       </pivotArea>
     </format>
     <format dxfId="94">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="3">
-          <reference field="0" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="14" count="0" selected="0"/>
-          <reference field="20" count="1">
-            <x v="80"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="93">
       <pivotArea field="14" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisCol" fieldPosition="0">
         <references count="1">
           <reference field="14" count="0" selected="0"/>
         </references>
       </pivotArea>
     </format>
+    <format dxfId="93">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
     <format dxfId="92">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="20" count="3">
+            <x v="38"/>
+            <x v="39"/>
+            <x v="80"/>
+          </reference>
+        </references>
+      </pivotArea>
     </format>
     <format dxfId="91">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
@@ -21943,97 +22122,16 @@
           <reference field="0" count="1" selected="0">
             <x v="1"/>
           </reference>
-          <reference field="20" count="1">
-            <x v="80"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="90">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="2">
-          <reference field="0" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="20" count="9">
-            <x v="1"/>
-            <x v="4"/>
+          <reference field="20" count="15">
+            <x v="6"/>
             <x v="8"/>
             <x v="9"/>
             <x v="14"/>
             <x v="16"/>
             <x v="19"/>
-            <x v="26"/>
-            <x v="34"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="89">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="2">
-          <reference field="0" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="20" count="9">
-            <x v="1"/>
-            <x v="4"/>
-            <x v="8"/>
-            <x v="9"/>
-            <x v="14"/>
-            <x v="16"/>
-            <x v="19"/>
-            <x v="26"/>
-            <x v="34"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="88">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="2">
-          <reference field="0" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="20" count="8">
-            <x v="8"/>
-            <x v="9"/>
-            <x v="12"/>
-            <x v="14"/>
-            <x v="19"/>
             <x v="21"/>
             <x v="22"/>
             <x v="24"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="87">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="2">
-          <reference field="0" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="20" count="8">
-            <x v="8"/>
-            <x v="9"/>
-            <x v="12"/>
-            <x v="14"/>
-            <x v="19"/>
-            <x v="21"/>
-            <x v="22"/>
-            <x v="24"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="86">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="2">
-          <reference field="0" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="20" count="6">
             <x v="26"/>
             <x v="34"/>
             <x v="37"/>
@@ -22044,25 +22142,28 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="85">
+    <format dxfId="90">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
-            <x v="1"/>
+            <x v="0"/>
           </reference>
-          <reference field="20" count="6">
-            <x v="4"/>
-            <x v="6"/>
-            <x v="8"/>
-            <x v="9"/>
+          <reference field="20" count="9">
             <x v="14"/>
-            <x v="16"/>
+            <x v="19"/>
+            <x v="21"/>
+            <x v="22"/>
+            <x v="24"/>
+            <x v="26"/>
+            <x v="34"/>
+            <x v="39"/>
+            <x v="46"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="84">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+    <format dxfId="89">
+      <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="1">
         <references count="2">
           <reference field="0" count="1" selected="0">
             <x v="0"/>
@@ -22073,14 +22174,13 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="83">
+    <format dxfId="88">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="1">
         <references count="2">
           <reference field="0" count="1" selected="0">
             <x v="1"/>
           </reference>
-          <reference field="20" count="17">
-            <x v="1"/>
+          <reference field="20" count="16">
             <x v="4"/>
             <x v="6"/>
             <x v="8"/>
@@ -22101,105 +22201,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="82">
-      <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="1">
-        <references count="2">
-          <reference field="0" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="20" count="1">
-            <x v="46"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
   </formats>
-  <chartFormats count="7">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="14" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="14" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="14" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="14" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="14" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="14" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="6" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="14" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
   <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -22241,7 +22243,18 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0EF4BB5B-153B-4CF9-ADC7-D0451CA37337}" name="Tabla3" displayName="Tabla3" ref="A3:W352" totalsRowShown="0" headerRowDxfId="231">
-  <autoFilter ref="A3:W352" xr:uid="{0EF4BB5B-153B-4CF9-ADC7-D0451CA37337}"/>
+  <autoFilter ref="A3:W352" xr:uid="{0EF4BB5B-153B-4CF9-ADC7-D0451CA37337}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="FEBRERO"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="14">
+      <filters>
+        <filter val="AGRICULTURA"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="23">
     <tableColumn id="24" xr3:uid="{7BFB5508-A8A2-4146-8D8C-C5393CD29EC9}" name="PERIODO" dataDxfId="230"/>
     <tableColumn id="1" xr3:uid="{EC4D0EA9-1942-4647-83E8-C9C545AC8BFF}" name="FECHA" dataDxfId="229"/>
@@ -30490,7 +30503,7 @@
   <dimension ref="A1:W352"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30536,7 +30549,7 @@
       </c>
       <c r="G1" s="79">
         <f>G2+D1</f>
-        <v>-40845485.549999997</v>
+        <v>-46608502.549999997</v>
       </c>
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
@@ -30561,25 +30574,25 @@
       <c r="C2" s="7"/>
       <c r="E2" s="71">
         <f>SUBTOTAL(9,Tabla3[EGRESOS])</f>
-        <v>233652787.60000002</v>
+        <v>10589918.560000001</v>
       </c>
       <c r="F2" s="70">
         <f>SUBTOTAL(9,Tabla3[INGRESOS])</f>
-        <v>229528786.04000002</v>
+        <v>702900</v>
       </c>
       <c r="G2" s="15">
         <f>F2-E2</f>
-        <v>-4124001.5600000024</v>
+        <v>-9887018.5600000005</v>
       </c>
       <c r="H2" s="15"/>
       <c r="I2" s="7"/>
       <c r="J2" s="56">
         <f>SUBTOTAL(9,Tabla3[EGRES USD])</f>
-        <v>161139.85351724143</v>
+        <v>7303.3921103448274</v>
       </c>
       <c r="K2" s="56">
         <f>SUBTOTAL(9,Tabla3[INGRES USD])</f>
-        <v>158295.71451034484</v>
+        <v>484.75862068965517</v>
       </c>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
@@ -30665,7 +30678,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="52" t="str">
         <f t="shared" ref="A4:A85" si="0">"ENERO"</f>
         <v>ENERO</v>
@@ -30730,7 +30743,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="52" t="str">
         <f t="shared" si="0"/>
         <v>ENERO</v>
@@ -30797,7 +30810,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="52" t="str">
         <f t="shared" si="0"/>
         <v>ENERO</v>
@@ -30864,7 +30877,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="52" t="str">
         <f t="shared" si="0"/>
         <v>ENERO</v>
@@ -30931,7 +30944,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="52" t="str">
         <f t="shared" si="0"/>
         <v>ENERO</v>
@@ -30998,7 +31011,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="str">
         <f t="shared" si="0"/>
         <v>ENERO</v>
@@ -31065,7 +31078,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="52" t="str">
         <f t="shared" si="0"/>
         <v>ENERO</v>
@@ -31134,7 +31147,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="52" t="str">
         <f t="shared" si="0"/>
         <v>ENERO</v>
@@ -31201,7 +31214,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="52" t="str">
         <f t="shared" si="0"/>
         <v>ENERO</v>
@@ -31268,7 +31281,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="52" t="str">
         <f t="shared" si="0"/>
         <v>ENERO</v>
@@ -31331,7 +31344,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="52" t="str">
         <f t="shared" si="0"/>
         <v>ENERO</v>
@@ -31394,7 +31407,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="52" t="str">
         <f t="shared" si="0"/>
         <v>ENERO</v>
@@ -31457,7 +31470,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="52" t="str">
         <f t="shared" si="0"/>
         <v>ENERO</v>
@@ -31522,7 +31535,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="52" t="str">
         <f t="shared" si="0"/>
         <v>ENERO</v>
@@ -31587,7 +31600,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="52" t="str">
         <f t="shared" si="0"/>
         <v>ENERO</v>
@@ -31654,7 +31667,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="52" t="str">
         <f t="shared" si="0"/>
         <v>ENERO</v>
@@ -31719,7 +31732,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="52" t="str">
         <f t="shared" si="0"/>
         <v>ENERO</v>
@@ -31784,7 +31797,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="52" t="str">
         <f t="shared" ref="A21:A68" si="1">"FEBRERO"</f>
         <v>FEBRERO</v>
@@ -31847,7 +31860,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="52" t="str">
         <f t="shared" si="1"/>
         <v>FEBRERO</v>
@@ -31912,7 +31925,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="52" t="str">
         <f t="shared" si="1"/>
         <v>FEBRERO</v>
@@ -31977,7 +31990,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="52" t="str">
         <f t="shared" si="1"/>
         <v>FEBRERO</v>
@@ -32042,7 +32055,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="52" t="str">
         <f t="shared" si="1"/>
         <v>FEBRERO</v>
@@ -32107,7 +32120,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="52" t="str">
         <f t="shared" si="1"/>
         <v>FEBRERO</v>
@@ -32174,7 +32187,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="52" t="str">
         <f t="shared" si="1"/>
         <v>FEBRERO</v>
@@ -32243,7 +32256,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="134" t="str">
         <f t="shared" si="1"/>
         <v>FEBRERO</v>
@@ -32308,7 +32321,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="134" t="str">
         <f t="shared" si="1"/>
         <v>FEBRERO</v>
@@ -32373,7 +32386,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="134" t="str">
         <f t="shared" si="1"/>
         <v>FEBRERO</v>
@@ -32438,7 +32451,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="134" t="str">
         <f t="shared" si="1"/>
         <v>FEBRERO</v>
@@ -32503,7 +32516,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="134" t="str">
         <f t="shared" si="1"/>
         <v>FEBRERO</v>
@@ -32572,7 +32585,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="134" t="str">
         <f t="shared" si="1"/>
         <v>FEBRERO</v>
@@ -32641,7 +32654,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="134" t="str">
         <f t="shared" si="1"/>
         <v>FEBRERO</v>
@@ -32710,7 +32723,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="134" t="str">
         <f t="shared" si="1"/>
         <v>FEBRERO</v>
@@ -32773,7 +32786,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="134" t="str">
         <f t="shared" si="1"/>
         <v>FEBRERO</v>
@@ -32838,7 +32851,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="134" t="str">
         <f t="shared" si="1"/>
         <v>FEBRERO</v>
@@ -32903,7 +32916,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="134" t="str">
         <f t="shared" si="1"/>
         <v>FEBRERO</v>
@@ -32968,7 +32981,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="134" t="str">
         <f t="shared" si="1"/>
         <v>FEBRERO</v>
@@ -33033,7 +33046,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="134" t="str">
         <f t="shared" si="1"/>
         <v>FEBRERO</v>
@@ -33098,7 +33111,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="134" t="str">
         <f t="shared" si="1"/>
         <v>FEBRERO</v>
@@ -33163,7 +33176,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="134" t="str">
         <f t="shared" si="1"/>
         <v>FEBRERO</v>
@@ -33293,7 +33306,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="134" t="str">
         <f t="shared" si="1"/>
         <v>FEBRERO</v>
@@ -33356,7 +33369,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="134" t="str">
         <f t="shared" si="1"/>
         <v>FEBRERO</v>
@@ -33421,7 +33434,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="134" t="str">
         <f t="shared" si="1"/>
         <v>FEBRERO</v>
@@ -33486,7 +33499,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="134" t="str">
         <f t="shared" si="1"/>
         <v>FEBRERO</v>
@@ -33551,7 +33564,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="134" t="str">
         <f t="shared" si="1"/>
         <v>FEBRERO</v>
@@ -33616,7 +33629,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="134" t="str">
         <f t="shared" si="1"/>
         <v>FEBRERO</v>
@@ -33681,7 +33694,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="134" t="str">
         <f t="shared" si="1"/>
         <v>FEBRERO</v>
@@ -33746,7 +33759,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="134" t="str">
         <f t="shared" si="1"/>
         <v>FEBRERO</v>
@@ -33811,7 +33824,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="134" t="str">
         <f t="shared" si="1"/>
         <v>FEBRERO</v>
@@ -33876,7 +33889,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="134" t="str">
         <f t="shared" si="1"/>
         <v>FEBRERO</v>
@@ -33941,7 +33954,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="134" t="str">
         <f t="shared" si="1"/>
         <v>FEBRERO</v>
@@ -34004,7 +34017,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="134" t="str">
         <f t="shared" si="1"/>
         <v>FEBRERO</v>
@@ -34067,7 +34080,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="134" t="str">
         <f t="shared" si="1"/>
         <v>FEBRERO</v>
@@ -34132,7 +34145,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="134" t="str">
         <f t="shared" si="1"/>
         <v>FEBRERO</v>
@@ -34197,7 +34210,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="134" t="str">
         <f t="shared" si="1"/>
         <v>FEBRERO</v>
@@ -34262,7 +34275,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="134" t="str">
         <f t="shared" si="1"/>
         <v>FEBRERO</v>
@@ -34327,7 +34340,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="125" t="str">
         <f t="shared" si="1"/>
         <v>FEBRERO</v>
@@ -34392,7 +34405,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="125" t="str">
         <f t="shared" si="1"/>
         <v>FEBRERO</v>
@@ -34455,7 +34468,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="125" t="str">
         <f t="shared" si="1"/>
         <v>FEBRERO</v>
@@ -34520,7 +34533,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="125" t="str">
         <f t="shared" si="1"/>
         <v>FEBRERO</v>
@@ -34585,7 +34598,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="125" t="str">
         <f t="shared" si="1"/>
         <v>FEBRERO</v>
@@ -34650,7 +34663,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="125" t="str">
         <f t="shared" si="1"/>
         <v>FEBRERO</v>
@@ -34713,7 +34726,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="125" t="str">
         <f t="shared" si="1"/>
         <v>FEBRERO</v>
@@ -34778,7 +34791,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="125" t="str">
         <f t="shared" si="1"/>
         <v>FEBRERO</v>
@@ -34843,7 +34856,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="125" t="str">
         <f t="shared" si="1"/>
         <v>FEBRERO</v>
@@ -34910,7 +34923,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="52" t="str">
         <f t="shared" si="0"/>
         <v>ENERO</v>
@@ -34977,7 +34990,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="52" t="str">
         <f t="shared" si="0"/>
         <v>ENERO</v>
@@ -35044,7 +35057,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="52" t="str">
         <f t="shared" si="0"/>
         <v>ENERO</v>
@@ -35109,7 +35122,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="52" t="str">
         <f t="shared" si="0"/>
         <v>ENERO</v>
@@ -35174,7 +35187,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="52" t="str">
         <f t="shared" si="0"/>
         <v>ENERO</v>
@@ -35239,7 +35252,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="52" t="str">
         <f t="shared" si="0"/>
         <v>ENERO</v>
@@ -35302,7 +35315,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="52" t="str">
         <f t="shared" si="0"/>
         <v>ENERO</v>
@@ -35367,7 +35380,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="134" t="str">
         <f t="shared" si="0"/>
         <v>ENERO</v>
@@ -35432,7 +35445,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="134" t="str">
         <f t="shared" si="0"/>
         <v>ENERO</v>
@@ -35497,7 +35510,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="134" t="str">
         <f t="shared" si="0"/>
         <v>ENERO</v>
@@ -35562,7 +35575,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="134" t="str">
         <f t="shared" si="0"/>
         <v>ENERO</v>
@@ -35625,7 +35638,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="134" t="str">
         <f t="shared" si="0"/>
         <v>ENERO</v>
@@ -35690,7 +35703,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="134" t="str">
         <f t="shared" si="0"/>
         <v>ENERO</v>
@@ -35753,7 +35766,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="134" t="str">
         <f t="shared" si="0"/>
         <v>ENERO</v>
@@ -35818,7 +35831,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="134" t="str">
         <f t="shared" si="0"/>
         <v>ENERO</v>
@@ -35883,7 +35896,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="134" t="str">
         <f t="shared" si="0"/>
         <v>ENERO</v>
@@ -35946,7 +35959,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="134" t="str">
         <f t="shared" si="0"/>
         <v>ENERO</v>
@@ -36013,7 +36026,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="134" t="str">
         <f t="shared" ref="A86:A109" si="2">"FEBRERO"</f>
         <v>FEBRERO</v>
@@ -36078,7 +36091,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="134" t="str">
         <f t="shared" si="2"/>
         <v>FEBRERO</v>
@@ -36143,7 +36156,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="134" t="str">
         <f t="shared" si="2"/>
         <v>FEBRERO</v>
@@ -36206,7 +36219,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="134" t="str">
         <f t="shared" si="2"/>
         <v>FEBRERO</v>
@@ -36271,7 +36284,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="134" t="str">
         <f t="shared" si="2"/>
         <v>FEBRERO</v>
@@ -36336,7 +36349,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="134" t="str">
         <f t="shared" si="2"/>
         <v>FEBRERO</v>
@@ -36401,7 +36414,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="134" t="str">
         <f t="shared" si="2"/>
         <v>FEBRERO</v>
@@ -36464,7 +36477,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="134" t="str">
         <f t="shared" si="2"/>
         <v>FEBRERO</v>
@@ -36529,7 +36542,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="134" t="str">
         <f t="shared" si="2"/>
         <v>FEBRERO</v>
@@ -36596,7 +36609,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="134" t="str">
         <f t="shared" si="2"/>
         <v>FEBRERO</v>
@@ -36663,7 +36676,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="134" t="str">
         <f t="shared" si="2"/>
         <v>FEBRERO</v>
@@ -36728,7 +36741,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="125" t="str">
         <f t="shared" si="2"/>
         <v>FEBRERO</v>
@@ -36793,7 +36806,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="125" t="str">
         <f t="shared" si="2"/>
         <v>FEBRERO</v>
@@ -36860,7 +36873,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="125" t="str">
         <f t="shared" si="2"/>
         <v>FEBRERO</v>
@@ -36925,7 +36938,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="125" t="str">
         <f t="shared" si="2"/>
         <v>FEBRERO</v>
@@ -36992,7 +37005,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="125" t="str">
         <f t="shared" si="2"/>
         <v>FEBRERO</v>
@@ -37059,7 +37072,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="125" t="str">
         <f t="shared" si="2"/>
         <v>FEBRERO</v>
@@ -37124,7 +37137,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="125" t="str">
         <f t="shared" si="2"/>
         <v>FEBRERO</v>
@@ -37187,7 +37200,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="125" t="str">
         <f t="shared" si="2"/>
         <v>FEBRERO</v>
@@ -37252,7 +37265,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="125" t="str">
         <f t="shared" si="2"/>
         <v>FEBRERO</v>
@@ -37319,7 +37332,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="125" t="str">
         <f t="shared" si="2"/>
         <v>FEBRERO</v>
@@ -37384,7 +37397,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="125" t="str">
         <f t="shared" si="2"/>
         <v>FEBRERO</v>
@@ -37449,7 +37462,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="125" t="str">
         <f t="shared" si="2"/>
         <v>FEBRERO</v>
@@ -37516,7 +37529,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="125" t="str">
         <f t="shared" si="2"/>
         <v>FEBRERO</v>
@@ -37585,7 +37598,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="52" t="str">
         <f t="shared" ref="A110:A180" si="3">"ENERO"</f>
         <v>ENERO</v>
@@ -37650,7 +37663,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="52" t="str">
         <f t="shared" si="3"/>
         <v>ENERO</v>
@@ -37717,7 +37730,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="52" t="str">
         <f t="shared" si="3"/>
         <v>ENERO</v>
@@ -37784,7 +37797,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="52" t="str">
         <f t="shared" si="3"/>
         <v>ENERO</v>
@@ -37851,7 +37864,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="52" t="str">
         <f t="shared" si="3"/>
         <v>ENERO</v>
@@ -37918,7 +37931,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="52" t="str">
         <f t="shared" si="3"/>
         <v>ENERO</v>
@@ -37983,7 +37996,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="52" t="str">
         <f t="shared" si="3"/>
         <v>ENERO</v>
@@ -38050,7 +38063,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="52" t="str">
         <f t="shared" si="3"/>
         <v>ENERO</v>
@@ -38117,7 +38130,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="52" t="str">
         <f t="shared" si="3"/>
         <v>ENERO</v>
@@ -38184,7 +38197,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="52" t="str">
         <f t="shared" si="3"/>
         <v>ENERO</v>
@@ -38251,7 +38264,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="52" t="str">
         <f t="shared" si="3"/>
         <v>ENERO</v>
@@ -38318,7 +38331,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="52" t="str">
         <f t="shared" si="3"/>
         <v>ENERO</v>
@@ -38387,7 +38400,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="52" t="str">
         <f t="shared" si="3"/>
         <v>ENERO</v>
@@ -38454,7 +38467,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="52" t="str">
         <f t="shared" si="3"/>
         <v>ENERO</v>
@@ -38521,7 +38534,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="52" t="str">
         <f t="shared" si="3"/>
         <v>ENERO</v>
@@ -38588,7 +38601,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="134" t="str">
         <f t="shared" si="3"/>
         <v>ENERO</v>
@@ -38655,7 +38668,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="134" t="str">
         <f t="shared" si="3"/>
         <v>ENERO</v>
@@ -38722,7 +38735,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="134" t="str">
         <f t="shared" si="3"/>
         <v>ENERO</v>
@@ -38793,7 +38806,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="134" t="str">
         <f t="shared" si="3"/>
         <v>ENERO</v>
@@ -38860,7 +38873,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="134" t="str">
         <f t="shared" si="3"/>
         <v>ENERO</v>
@@ -38929,7 +38942,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="134" t="str">
         <f t="shared" si="3"/>
         <v>ENERO</v>
@@ -38996,7 +39009,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="134" t="str">
         <f t="shared" si="3"/>
         <v>ENERO</v>
@@ -39067,7 +39080,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="134" t="str">
         <f t="shared" si="3"/>
         <v>ENERO</v>
@@ -39134,7 +39147,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="134" t="str">
         <f>"FEBRERO"</f>
         <v>FEBRERO</v>
@@ -39199,7 +39212,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="134" t="s">
         <v>62</v>
       </c>
@@ -39265,7 +39278,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="134" t="s">
         <v>62</v>
       </c>
@@ -39331,7 +39344,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="134" t="s">
         <v>62</v>
       </c>
@@ -39397,7 +39410,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="134" t="s">
         <v>62</v>
       </c>
@@ -39461,7 +39474,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="134" t="s">
         <v>62</v>
       </c>
@@ -39527,7 +39540,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="134" t="s">
         <v>62</v>
       </c>
@@ -39593,7 +39606,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="134" t="s">
         <v>62</v>
       </c>
@@ -39659,7 +39672,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="134" t="s">
         <v>62</v>
       </c>
@@ -39725,7 +39738,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="134" t="s">
         <v>62</v>
       </c>
@@ -39791,7 +39804,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="134" t="s">
         <v>62</v>
       </c>
@@ -39857,7 +39870,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="134" t="s">
         <v>62</v>
       </c>
@@ -39923,7 +39936,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="134" t="s">
         <v>62</v>
       </c>
@@ -39989,7 +40002,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="134" t="s">
         <v>62</v>
       </c>
@@ -40053,7 +40066,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="134" t="s">
         <v>62</v>
       </c>
@@ -40119,7 +40132,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="134" t="s">
         <v>62</v>
       </c>
@@ -40187,7 +40200,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="134" t="s">
         <v>62</v>
       </c>
@@ -40257,7 +40270,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="134" t="s">
         <v>62</v>
       </c>
@@ -40397,7 +40410,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="134" t="s">
         <v>62</v>
       </c>
@@ -40463,7 +40476,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="153" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="134" t="s">
         <v>62</v>
       </c>
@@ -40529,7 +40542,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="154" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="134" t="s">
         <v>62</v>
       </c>
@@ -40595,7 +40608,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="134" t="s">
         <v>62</v>
       </c>
@@ -40665,7 +40678,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="134" t="s">
         <v>62</v>
       </c>
@@ -40731,7 +40744,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="134" t="s">
         <v>62</v>
       </c>
@@ -40797,7 +40810,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="134" t="s">
         <v>62</v>
       </c>
@@ -40867,7 +40880,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="134" t="s">
         <v>62</v>
       </c>
@@ -40933,7 +40946,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="134" t="s">
         <v>62</v>
       </c>
@@ -40999,7 +41012,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="161" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="134" t="s">
         <v>62</v>
       </c>
@@ -41065,7 +41078,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="162" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="134" t="s">
         <v>62</v>
       </c>
@@ -41131,7 +41144,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="163" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="134" t="s">
         <v>62</v>
       </c>
@@ -41199,7 +41212,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="164" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="134" t="s">
         <v>62</v>
       </c>
@@ -41265,7 +41278,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="165" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="125" t="s">
         <v>62</v>
       </c>
@@ -41333,7 +41346,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="166" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="125" t="s">
         <v>62</v>
       </c>
@@ -41399,7 +41412,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="167" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="125" t="s">
         <v>62</v>
       </c>
@@ -41465,7 +41478,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="168" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="125" t="s">
         <v>62</v>
       </c>
@@ -41535,7 +41548,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="169" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="125" t="s">
         <v>62</v>
       </c>
@@ -41599,7 +41612,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="170" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="125" t="s">
         <v>62</v>
       </c>
@@ -41665,7 +41678,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="171" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="125" t="s">
         <v>62</v>
       </c>
@@ -41731,7 +41744,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="172" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="125" t="s">
         <v>62</v>
       </c>
@@ -41799,7 +41812,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="173" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="52" t="str">
         <f t="shared" si="3"/>
         <v>ENERO</v>
@@ -41868,7 +41881,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="174" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="52" t="str">
         <f t="shared" si="3"/>
         <v>ENERO</v>
@@ -41935,7 +41948,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="175" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="52" t="str">
         <f t="shared" si="3"/>
         <v>ENERO</v>
@@ -42002,7 +42015,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="176" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="52" t="str">
         <f t="shared" si="3"/>
         <v>ENERO</v>
@@ -42069,7 +42082,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="177" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="52" t="str">
         <f t="shared" si="3"/>
         <v>ENERO</v>
@@ -42136,7 +42149,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="178" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="52" t="str">
         <f t="shared" si="3"/>
         <v>ENERO</v>
@@ -42201,7 +42214,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="179" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="52" t="str">
         <f t="shared" si="3"/>
         <v>ENERO</v>
@@ -42268,7 +42281,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="180" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="52" t="str">
         <f t="shared" si="3"/>
         <v>ENERO</v>
@@ -42335,7 +42348,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="181" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="52" t="s">
         <v>62</v>
       </c>
@@ -42403,7 +42416,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="182" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="52" t="s">
         <v>62</v>
       </c>
@@ -42469,7 +42482,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="183" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="52" t="s">
         <v>62</v>
       </c>
@@ -42535,7 +42548,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="184" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="52" t="str">
         <f>"ENERO"</f>
         <v>ENERO</v>
@@ -42602,7 +42615,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="185" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="52" t="str">
         <f t="shared" ref="A185:A323" si="4">"ENERO"</f>
         <v>ENERO</v>
@@ -42671,7 +42684,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="186" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:23" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="52" t="str">
         <f t="shared" si="4"/>
         <v>ENERO</v>
@@ -42735,7 +42748,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="187" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:23" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="52" t="str">
         <f t="shared" si="4"/>
         <v>ENERO</v>
@@ -42799,7 +42812,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="188" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:23" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="52" t="str">
         <f t="shared" si="4"/>
         <v>ENERO</v>
@@ -42866,7 +42879,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="189" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:23" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="52" t="str">
         <f t="shared" si="4"/>
         <v>ENERO</v>
@@ -42930,7 +42943,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="190" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:23" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="52" t="str">
         <f t="shared" si="4"/>
         <v>ENERO</v>
@@ -42994,7 +43007,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="191" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:23" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="52" t="str">
         <f t="shared" si="4"/>
         <v>ENERO</v>
@@ -43061,7 +43074,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="192" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:23" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="52" t="str">
         <f t="shared" si="4"/>
         <v>ENERO</v>
@@ -43125,7 +43138,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="193" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="52" t="str">
         <f t="shared" si="4"/>
         <v>ENERO</v>
@@ -43192,7 +43205,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="194" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="52" t="str">
         <f t="shared" si="4"/>
         <v>ENERO</v>
@@ -43259,7 +43272,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="195" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="52" t="str">
         <f t="shared" si="4"/>
         <v>ENERO</v>
@@ -43326,7 +43339,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="196" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="52" t="str">
         <f t="shared" si="4"/>
         <v>ENERO</v>
@@ -43393,7 +43406,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="197" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="52" t="str">
         <f t="shared" si="4"/>
         <v>ENERO</v>
@@ -43466,7 +43479,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="198" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="52" t="str">
         <f t="shared" si="4"/>
         <v>ENERO</v>
@@ -43539,7 +43552,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="199" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="52" t="str">
         <f t="shared" si="4"/>
         <v>ENERO</v>
@@ -43606,7 +43619,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="200" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="52" t="str">
         <f t="shared" si="4"/>
         <v>ENERO</v>
@@ -43677,7 +43690,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="201" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="52" t="str">
         <f t="shared" si="4"/>
         <v>ENERO</v>
@@ -43750,7 +43763,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="202" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="52" t="str">
         <f t="shared" si="4"/>
         <v>ENERO</v>
@@ -43817,7 +43830,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="203" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="52" t="str">
         <f t="shared" si="4"/>
         <v>ENERO</v>
@@ -43886,7 +43899,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="204" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="52" t="str">
         <f t="shared" si="4"/>
         <v>ENERO</v>
@@ -43955,7 +43968,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="205" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="52" t="s">
         <v>60</v>
       </c>
@@ -44023,7 +44036,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="206" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="52" t="str">
         <f t="shared" si="4"/>
         <v>ENERO</v>
@@ -44088,7 +44101,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="207" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="52" t="str">
         <f t="shared" si="4"/>
         <v>ENERO</v>
@@ -44155,7 +44168,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="208" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="52" t="str">
         <f t="shared" si="4"/>
         <v>ENERO</v>
@@ -44224,7 +44237,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="209" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="52" t="str">
         <f t="shared" si="4"/>
         <v>ENERO</v>
@@ -44289,7 +44302,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="210" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="52" t="str">
         <f t="shared" si="4"/>
         <v>ENERO</v>
@@ -44356,7 +44369,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="211" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="52" t="str">
         <f t="shared" si="4"/>
         <v>ENERO</v>
@@ -44425,7 +44438,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="212" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="52" t="str">
         <f t="shared" si="4"/>
         <v>ENERO</v>
@@ -44490,7 +44503,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="213" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="52" t="str">
         <f t="shared" si="4"/>
         <v>ENERO</v>
@@ -44559,7 +44572,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="214" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="52" t="str">
         <f t="shared" si="4"/>
         <v>ENERO</v>
@@ -44624,7 +44637,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="215" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="52" t="str">
         <f t="shared" si="4"/>
         <v>ENERO</v>
@@ -44691,7 +44704,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="216" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="52" t="str">
         <f t="shared" si="4"/>
         <v>ENERO</v>
@@ -44760,7 +44773,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="217" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="52" t="str">
         <f t="shared" si="4"/>
         <v>ENERO</v>
@@ -44825,7 +44838,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="218" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="52" t="str">
         <f t="shared" si="4"/>
         <v>ENERO</v>
@@ -44892,7 +44905,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="219" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="52" t="str">
         <f t="shared" si="4"/>
         <v>ENERO</v>
@@ -44959,7 +44972,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="220" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="52" t="str">
         <f t="shared" si="4"/>
         <v>ENERO</v>
@@ -45024,7 +45037,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="221" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="52" t="str">
         <f t="shared" si="4"/>
         <v>ENERO</v>
@@ -45091,7 +45104,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="222" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="52" t="str">
         <f t="shared" si="4"/>
         <v>ENERO</v>
@@ -45156,7 +45169,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="223" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="52" t="str">
         <f t="shared" si="4"/>
         <v>ENERO</v>
@@ -45223,7 +45236,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="224" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="52" t="str">
         <f t="shared" si="4"/>
         <v>ENERO</v>
@@ -45292,7 +45305,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="225" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="52" t="str">
         <f t="shared" si="4"/>
         <v>ENERO</v>
@@ -45359,7 +45372,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="226" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="52" t="str">
         <f t="shared" si="4"/>
         <v>ENERO</v>
@@ -45426,7 +45439,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="227" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="52" t="str">
         <f t="shared" si="4"/>
         <v>ENERO</v>
@@ -45491,7 +45504,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="228" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="52" t="str">
         <f t="shared" si="4"/>
         <v>ENERO</v>
@@ -45558,7 +45571,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="229" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="52" t="str">
         <f t="shared" si="4"/>
         <v>ENERO</v>
@@ -45623,7 +45636,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="230" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="52" t="str">
         <f t="shared" si="4"/>
         <v>ENERO</v>
@@ -45690,7 +45703,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="231" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="52" t="str">
         <f t="shared" si="4"/>
         <v>ENERO</v>
@@ -45755,7 +45768,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="232" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="52" t="str">
         <f t="shared" si="4"/>
         <v>ENERO</v>
@@ -45824,7 +45837,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="233" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="52" t="str">
         <f t="shared" si="4"/>
         <v>ENERO</v>
@@ -45889,7 +45902,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="234" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="52" t="str">
         <f t="shared" si="4"/>
         <v>ENERO</v>
@@ -45958,7 +45971,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="235" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="52" t="str">
         <f t="shared" si="4"/>
         <v>ENERO</v>
@@ -46023,7 +46036,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="236" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="52" t="str">
         <f t="shared" si="4"/>
         <v>ENERO</v>
@@ -46092,7 +46105,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="237" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="52" t="str">
         <f t="shared" si="4"/>
         <v>ENERO</v>
@@ -46157,7 +46170,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="238" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="52" t="str">
         <f t="shared" si="4"/>
         <v>ENERO</v>
@@ -46224,7 +46237,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="239" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="52" t="str">
         <f t="shared" si="4"/>
         <v>ENERO</v>
@@ -46297,7 +46310,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="240" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="52" t="str">
         <f t="shared" si="4"/>
         <v>ENERO</v>
@@ -46370,7 +46383,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="241" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="52" t="str">
         <f t="shared" si="4"/>
         <v>ENERO</v>
@@ -46439,7 +46452,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="242" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="52" t="str">
         <f t="shared" si="4"/>
         <v>ENERO</v>
@@ -46508,7 +46521,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="243" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="52" t="str">
         <f t="shared" si="4"/>
         <v>ENERO</v>
@@ -46575,7 +46588,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="244" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="52" t="str">
         <f t="shared" si="4"/>
         <v>ENERO</v>
@@ -46640,7 +46653,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="245" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="52" t="str">
         <f t="shared" si="4"/>
         <v>ENERO</v>
@@ -46707,7 +46720,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="246" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="52" t="str">
         <f t="shared" si="4"/>
         <v>ENERO</v>
@@ -46776,7 +46789,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="247" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="52" t="str">
         <f t="shared" si="4"/>
         <v>ENERO</v>
@@ -46845,7 +46858,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="248" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="52" t="str">
         <f t="shared" si="4"/>
         <v>ENERO</v>
@@ -46910,7 +46923,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="249" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="52" t="str">
         <f t="shared" si="4"/>
         <v>ENERO</v>
@@ -46975,7 +46988,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="250" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="52" t="str">
         <f t="shared" si="4"/>
         <v>ENERO</v>
@@ -47042,7 +47055,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="251" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="52" t="str">
         <f t="shared" si="4"/>
         <v>ENERO</v>
@@ -47109,7 +47122,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="252" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="52" t="s">
         <v>60</v>
       </c>
@@ -47175,7 +47188,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="253" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="52" t="str">
         <f t="shared" si="4"/>
         <v>ENERO</v>
@@ -47240,7 +47253,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="254" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="52" t="str">
         <f t="shared" si="4"/>
         <v>ENERO</v>
@@ -47311,7 +47324,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="255" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="52" t="str">
         <f t="shared" si="4"/>
         <v>ENERO</v>
@@ -47378,7 +47391,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="256" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="52" t="str">
         <f t="shared" si="4"/>
         <v>ENERO</v>
@@ -47445,7 +47458,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="257" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="52" t="str">
         <f t="shared" si="4"/>
         <v>ENERO</v>
@@ -47514,7 +47527,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="258" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="134" t="str">
         <f t="shared" si="4"/>
         <v>ENERO</v>
@@ -47579,7 +47592,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="259" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="134" t="str">
         <f t="shared" si="4"/>
         <v>ENERO</v>
@@ -47646,7 +47659,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="260" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="134" t="str">
         <f t="shared" si="4"/>
         <v>ENERO</v>
@@ -47717,7 +47730,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="261" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="134" t="str">
         <f t="shared" si="4"/>
         <v>ENERO</v>
@@ -47788,7 +47801,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="262" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="134" t="str">
         <f t="shared" si="4"/>
         <v>ENERO</v>
@@ -47855,7 +47868,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="263" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="134" t="str">
         <f t="shared" si="4"/>
         <v>ENERO</v>
@@ -47928,7 +47941,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="264" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="134" t="str">
         <f t="shared" si="4"/>
         <v>ENERO</v>
@@ -47997,7 +48010,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="265" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="134" t="str">
         <f t="shared" si="4"/>
         <v>ENERO</v>
@@ -48068,7 +48081,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="266" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="134" t="str">
         <f t="shared" si="4"/>
         <v>ENERO</v>
@@ -48135,7 +48148,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="267" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="134" t="str">
         <f t="shared" si="4"/>
         <v>ENERO</v>
@@ -48202,7 +48215,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="268" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="134" t="str">
         <f t="shared" si="4"/>
         <v>ENERO</v>
@@ -48267,7 +48280,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="269" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="134" t="str">
         <f t="shared" si="4"/>
         <v>ENERO</v>
@@ -48334,7 +48347,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="270" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="134" t="str">
         <f t="shared" si="4"/>
         <v>ENERO</v>
@@ -48401,7 +48414,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="271" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="134" t="str">
         <f t="shared" si="4"/>
         <v>ENERO</v>
@@ -48466,7 +48479,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="272" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="134" t="str">
         <f t="shared" si="4"/>
         <v>ENERO</v>
@@ -48533,7 +48546,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="273" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="134" t="str">
         <f t="shared" si="4"/>
         <v>ENERO</v>
@@ -48600,7 +48613,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="274" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="134" t="str">
         <f t="shared" si="4"/>
         <v>ENERO</v>
@@ -48673,7 +48686,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="275" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="134" t="str">
         <f t="shared" si="4"/>
         <v>ENERO</v>
@@ -48742,7 +48755,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="276" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="134" t="str">
         <f t="shared" si="4"/>
         <v>ENERO</v>
@@ -48807,7 +48820,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="277" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="134" t="str">
         <f t="shared" si="4"/>
         <v>ENERO</v>
@@ -48874,7 +48887,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="278" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="134" t="str">
         <f>"FEBRERO"</f>
         <v>FEBRERO</v>
@@ -48941,7 +48954,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="279" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="134" t="str">
         <f t="shared" ref="A279:A316" si="5">"FEBRERO"</f>
         <v>FEBRERO</v>
@@ -49008,7 +49021,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="280" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="134" t="str">
         <f t="shared" si="5"/>
         <v>FEBRERO</v>
@@ -49075,7 +49088,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="281" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="134" t="str">
         <f t="shared" si="5"/>
         <v>FEBRERO</v>
@@ -49142,7 +49155,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="282" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="134" t="str">
         <f t="shared" si="5"/>
         <v>FEBRERO</v>
@@ -49209,7 +49222,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="283" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="134" t="str">
         <f t="shared" si="5"/>
         <v>FEBRERO</v>
@@ -49347,7 +49360,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="285" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="134" t="str">
         <f t="shared" si="5"/>
         <v>FEBRERO</v>
@@ -49414,7 +49427,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="286" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="134" t="str">
         <f t="shared" si="5"/>
         <v>FEBRERO</v>
@@ -49481,7 +49494,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="287" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="134" t="str">
         <f t="shared" si="5"/>
         <v>FEBRERO</v>
@@ -49548,7 +49561,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="288" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="134" t="str">
         <f t="shared" si="5"/>
         <v>FEBRERO</v>
@@ -49613,7 +49626,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="289" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="134" t="str">
         <f t="shared" si="5"/>
         <v>FEBRERO</v>
@@ -49680,7 +49693,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="290" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="134" t="str">
         <f t="shared" si="5"/>
         <v>FEBRERO</v>
@@ -49745,7 +49758,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="291" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="134" t="str">
         <f t="shared" si="5"/>
         <v>FEBRERO</v>
@@ -49812,7 +49825,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="292" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="134" t="str">
         <f t="shared" si="5"/>
         <v>FEBRERO</v>
@@ -49879,7 +49892,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="293" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="134" t="str">
         <f t="shared" si="5"/>
         <v>FEBRERO</v>
@@ -49946,7 +49959,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="294" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="134" t="str">
         <f t="shared" si="5"/>
         <v>FEBRERO</v>
@@ -50015,7 +50028,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="295" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="134" t="str">
         <f t="shared" si="5"/>
         <v>FEBRERO</v>
@@ -50084,7 +50097,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="296" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="134" t="str">
         <f t="shared" si="5"/>
         <v>FEBRERO</v>
@@ -50153,7 +50166,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="297" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="134" t="str">
         <f t="shared" si="5"/>
         <v>FEBRERO</v>
@@ -50220,7 +50233,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="298" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="134" t="str">
         <f t="shared" si="5"/>
         <v>FEBRERO</v>
@@ -50289,7 +50302,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="299" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="134" t="str">
         <f t="shared" si="5"/>
         <v>FEBRERO</v>
@@ -50356,7 +50369,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="300" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="134" t="str">
         <f t="shared" si="5"/>
         <v>FEBRERO</v>
@@ -50423,7 +50436,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="301" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="134" t="str">
         <f t="shared" si="5"/>
         <v>FEBRERO</v>
@@ -50490,7 +50503,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="302" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="134" t="str">
         <f t="shared" si="5"/>
         <v>FEBRERO</v>
@@ -50555,7 +50568,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="303" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="134" t="str">
         <f>"FEBRERO"</f>
         <v>FEBRERO</v>
@@ -50622,7 +50635,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="304" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="125" t="str">
         <f t="shared" si="5"/>
         <v>FEBRERO</v>
@@ -50689,7 +50702,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="305" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="125" t="str">
         <f t="shared" si="5"/>
         <v>FEBRERO</v>
@@ -50754,7 +50767,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="306" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="125" t="str">
         <f t="shared" si="5"/>
         <v>FEBRERO</v>
@@ -50819,7 +50832,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="307" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="125" t="str">
         <f>"FEBRERO"</f>
         <v>FEBRERO</v>
@@ -50886,7 +50899,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="308" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="125" t="str">
         <f t="shared" si="5"/>
         <v>FEBRERO</v>
@@ -50953,7 +50966,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="309" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="125" t="str">
         <f t="shared" si="5"/>
         <v>FEBRERO</v>
@@ -51020,7 +51033,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="310" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="125" t="str">
         <f>"FEBRERO"</f>
         <v>FEBRERO</v>
@@ -51089,7 +51102,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="311" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="125" t="str">
         <f t="shared" si="5"/>
         <v>FEBRERO</v>
@@ -51158,7 +51171,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="312" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="125" t="str">
         <f t="shared" si="5"/>
         <v>FEBRERO</v>
@@ -51225,7 +51238,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="313" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="125" t="str">
         <f t="shared" si="5"/>
         <v>FEBRERO</v>
@@ -51292,7 +51305,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="314" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="125" t="str">
         <f t="shared" si="5"/>
         <v>FEBRERO</v>
@@ -51359,7 +51372,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="315" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="125" t="str">
         <f t="shared" si="5"/>
         <v>FEBRERO</v>
@@ -51424,7 +51437,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="316" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="125" t="str">
         <f t="shared" si="5"/>
         <v>FEBRERO</v>
@@ -51491,7 +51504,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="317" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="52" t="str">
         <f t="shared" si="4"/>
         <v>ENERO</v>
@@ -51558,7 +51571,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="318" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="52" t="str">
         <f t="shared" si="4"/>
         <v>ENERO</v>
@@ -51625,7 +51638,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="319" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="52" t="str">
         <f t="shared" si="4"/>
         <v>ENERO</v>
@@ -51694,7 +51707,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="320" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="52" t="str">
         <f t="shared" si="4"/>
         <v>ENERO</v>
@@ -51763,7 +51776,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="321" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="52" t="str">
         <f t="shared" si="4"/>
         <v>ENERO</v>
@@ -51830,7 +51843,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="322" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="52" t="str">
         <f t="shared" ref="A322:A340" si="6">"ENERO"</f>
         <v>ENERO</v>
@@ -51897,7 +51910,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="323" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="52" t="str">
         <f t="shared" si="4"/>
         <v>ENERO</v>
@@ -51964,7 +51977,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="324" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="52" t="str">
         <f t="shared" si="6"/>
         <v>ENERO</v>
@@ -52033,7 +52046,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="325" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="52" t="str">
         <f t="shared" si="6"/>
         <v>ENERO</v>
@@ -52100,7 +52113,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="326" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="52" t="str">
         <f t="shared" si="6"/>
         <v>ENERO</v>
@@ -52167,7 +52180,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="327" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="52" t="str">
         <f t="shared" si="6"/>
         <v>ENERO</v>
@@ -52234,7 +52247,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="328" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="52" t="str">
         <f t="shared" si="6"/>
         <v>ENERO</v>
@@ -52301,7 +52314,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="329" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="52" t="str">
         <f t="shared" si="6"/>
         <v>ENERO</v>
@@ -52366,7 +52379,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="330" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="52" t="str">
         <f t="shared" si="6"/>
         <v>ENERO</v>
@@ -52427,7 +52440,7 @@
       <c r="V330" s="7"/>
       <c r="W330" s="7"/>
     </row>
-    <row r="331" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="52" t="str">
         <f t="shared" si="6"/>
         <v>ENERO</v>
@@ -52492,7 +52505,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="332" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="52" t="str">
         <f t="shared" si="6"/>
         <v>ENERO</v>
@@ -52559,7 +52572,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="333" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" s="52" t="str">
         <f t="shared" si="6"/>
         <v>ENERO</v>
@@ -52626,7 +52639,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="334" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="52" t="str">
         <f t="shared" si="6"/>
         <v>ENERO</v>
@@ -52693,7 +52706,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="335" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="52" t="str">
         <f t="shared" si="6"/>
         <v>ENERO</v>
@@ -52760,7 +52773,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="336" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" s="52" t="str">
         <f t="shared" si="6"/>
         <v>ENERO</v>
@@ -52825,7 +52838,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="337" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="52" t="str">
         <f t="shared" si="6"/>
         <v>ENERO</v>
@@ -52892,7 +52905,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="338" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" s="52" t="str">
         <f t="shared" si="6"/>
         <v>ENERO</v>
@@ -52955,7 +52968,7 @@
       <c r="V338" s="7"/>
       <c r="W338" s="7"/>
     </row>
-    <row r="339" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" s="52" t="str">
         <f t="shared" si="6"/>
         <v>ENERO</v>
@@ -53022,7 +53035,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="340" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="52" t="str">
         <f t="shared" si="6"/>
         <v>ENERO</v>
@@ -53087,7 +53100,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="341" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" s="52" t="str">
         <f t="shared" ref="A341:A344" si="7">"FEBRERO"</f>
         <v>FEBRERO</v>
@@ -53154,7 +53167,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="342" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" s="52" t="str">
         <f t="shared" si="7"/>
         <v>FEBRERO</v>
@@ -53221,7 +53234,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="343" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="52" t="str">
         <f t="shared" si="7"/>
         <v>FEBRERO</v>
@@ -53284,7 +53297,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="344" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" s="52" t="str">
         <f t="shared" si="7"/>
         <v>FEBRERO</v>
@@ -53349,7 +53362,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="345" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="52" t="str">
         <f>"FEBRERO"</f>
         <v>FEBRERO</v>
@@ -53416,7 +53429,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="346" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="52" t="str">
         <f>"FEBRERO"</f>
         <v>FEBRERO</v>
@@ -53483,7 +53496,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="347" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" s="52" t="str">
         <f t="shared" ref="A347:A352" si="8">"FEBRERO"</f>
         <v>FEBRERO</v>
@@ -53548,7 +53561,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="348" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" s="52" t="str">
         <f t="shared" si="8"/>
         <v>FEBRERO</v>
@@ -53617,7 +53630,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="349" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" s="52" t="str">
         <f t="shared" si="8"/>
         <v>FEBRERO</v>
@@ -53686,7 +53699,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="350" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" s="52" t="str">
         <f t="shared" si="8"/>
         <v>FEBRERO</v>
@@ -53755,7 +53768,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="351" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" s="52" t="str">
         <f t="shared" si="8"/>
         <v>FEBRERO</v>
@@ -53820,7 +53833,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="352" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" s="52" t="str">
         <f t="shared" si="8"/>
         <v>FEBRERO</v>
